--- a/Timekeeping/2024/09-24/HSU S 09-24.xlsx
+++ b/Timekeeping/2024/09-24/HSU S 09-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Timekeeping\09-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/095d5c38fd0987cc/RWA/1901/Eric's Billing/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A3DE2F-A697-4CA4-A5F1-C58B512BBA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="18700" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$AJ$43</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1472,7 +1485,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V60" sqref="V60"/>
+      <selection pane="topRight" activeCell="AJ34" sqref="AJ34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.6328125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
